--- a/competition.xlsx
+++ b/competition.xlsx
@@ -22,28 +22,28 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
-    <t xml:space="preserve">year</t>
-  </si>
-  <si>
-    <t xml:space="preserve">grade_large</t>
-  </si>
-  <si>
-    <t xml:space="preserve">grade_samll</t>
-  </si>
-  <si>
-    <t xml:space="preserve">name_large</t>
-  </si>
-  <si>
-    <t xml:space="preserve">name_detail</t>
-  </si>
-  <si>
-    <t xml:space="preserve">student</t>
-  </si>
-  <si>
-    <t xml:space="preserve">teacher</t>
-  </si>
-  <si>
-    <t xml:space="preserve">belong</t>
+    <t xml:space="preserve">年度</t>
+  </si>
+  <si>
+    <t xml:space="preserve">奖级（国家级、省级）</t>
+  </si>
+  <si>
+    <t xml:space="preserve">奖级（一等奖、二等奖）</t>
+  </si>
+  <si>
+    <t xml:space="preserve">类别（大创、电子设计）</t>
+  </si>
+  <si>
+    <t xml:space="preserve">名称</t>
+  </si>
+  <si>
+    <t xml:space="preserve">学生</t>
+  </si>
+  <si>
+    <t xml:space="preserve">教师</t>
+  </si>
+  <si>
+    <t xml:space="preserve">所属单位</t>
   </si>
   <si>
     <t xml:space="preserve">国家级</t>
@@ -74,7 +74,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="4">
     <font>
       <sz val="10"/>
       <name val="Droid Sans Fallback"/>
@@ -95,12 +95,6 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="2"/>
-      <charset val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -150,7 +144,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -174,12 +168,15 @@
   <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H2" activeCellId="0" sqref="H2"/>
+      <selection pane="topLeft" activeCell="G22" activeCellId="0" sqref="G22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="1" style="0" width="11.64"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="11.64"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="19.83"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="3" style="0" width="21.66"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="14.36"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="16.7"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="7" style="0" width="11.64"/>
   </cols>
